--- a/spec/support/validRoSpreadsheet.xlsx
+++ b/spec/support/validRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyshields/git-repos/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B0FD0E-34E8-ED42-B398-34D876A22743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5544C6-22A5-E74F-B7D5-BDAFD5AC6B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="460" windowWidth="25360" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8240" yWindow="460" windowWidth="25360" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="131">
   <si>
     <t>Example</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>8:30</t>
+  </si>
+  <si>
+    <t>White River Junction, VT</t>
+  </si>
+  <si>
+    <t>RO05</t>
   </si>
 </sst>
 </file>
@@ -1245,40 +1251,10 @@
     <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1306,6 +1282,36 @@
     <xf numFmtId="49" fontId="16" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2496,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IT50"/>
+  <dimension ref="A1:IU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BE10" sqref="BE10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2509,31 +2515,32 @@
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="57" width="11" style="1" customWidth="1"/>
-    <col min="58" max="58" width="11" style="46" customWidth="1"/>
-    <col min="59" max="254" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="46" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="58" width="11" style="1" customWidth="1"/>
+    <col min="59" max="59" width="11" style="46" customWidth="1"/>
+    <col min="60" max="255" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="4"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -2576,10 +2583,11 @@
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
-      <c r="BE1" s="5"/>
+      <c r="BE1" s="4"/>
       <c r="BF1" s="5"/>
-    </row>
-    <row r="2" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG1" s="5"/>
+    </row>
+    <row r="2" spans="1:59" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2596,166 +2604,169 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BF2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="59" t="s">
+      <c r="BG2" s="59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2772,166 +2783,169 @@
         <v>63</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AR3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AS3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AT3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BB3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BC3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="58" t="s">
+      <c r="BG3" s="58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -3103,11 +3117,14 @@
       <c r="BE4" s="18">
         <v>43114</v>
       </c>
-      <c r="BF4" s="61" t="s">
+      <c r="BF4" s="18">
+        <v>43114</v>
+      </c>
+      <c r="BG4" s="61" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20">
         <v>43497</v>
@@ -3277,9 +3294,12 @@
       <c r="BE5" s="22">
         <v>43115</v>
       </c>
-      <c r="BF5" s="22"/>
-    </row>
-    <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF5" s="22">
+        <v>43115</v>
+      </c>
+      <c r="BG5" s="22"/>
+    </row>
+    <row r="6" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="23">
         <v>43540</v>
@@ -3449,9 +3469,12 @@
       <c r="BE6" s="22">
         <v>43225</v>
       </c>
-      <c r="BF6" s="22"/>
-    </row>
-    <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF6" s="22">
+        <v>43225</v>
+      </c>
+      <c r="BG6" s="22"/>
+    </row>
+    <row r="7" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="24">
         <v>43576</v>
@@ -3555,11 +3578,11 @@
       <c r="AI7" s="22">
         <v>43191</v>
       </c>
-      <c r="AJ7" s="25" t="s">
+      <c r="AJ7" s="22">
+        <v>43191</v>
+      </c>
+      <c r="AK7" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="AK7" s="22">
-        <v>43191</v>
       </c>
       <c r="AL7" s="22">
         <v>43191</v>
@@ -3621,9 +3644,12 @@
       <c r="BE7" s="22">
         <v>43191</v>
       </c>
-      <c r="BF7" s="22"/>
-    </row>
-    <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF7" s="22">
+        <v>43191</v>
+      </c>
+      <c r="BG7" s="22"/>
+    </row>
+    <row r="8" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="26">
         <v>43604</v>
@@ -3684,8 +3710,9 @@
       <c r="BD8" s="29"/>
       <c r="BE8" s="29"/>
       <c r="BF8" s="29"/>
-    </row>
-    <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG8" s="29"/>
+    </row>
+    <row r="9" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
@@ -3744,8 +3771,9 @@
       <c r="BD9" s="29"/>
       <c r="BE9" s="29"/>
       <c r="BF9" s="29"/>
-    </row>
-    <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG9" s="29"/>
+    </row>
+    <row r="10" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -3804,8 +3832,9 @@
       <c r="BD10" s="28"/>
       <c r="BE10" s="28"/>
       <c r="BF10" s="28"/>
-    </row>
-    <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG10" s="28"/>
+    </row>
+    <row r="11" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="34"/>
       <c r="C11" s="31"/>
@@ -3862,10 +3891,11 @@
       <c r="BB11" s="31"/>
       <c r="BC11" s="31"/>
       <c r="BD11" s="31"/>
-      <c r="BE11" s="35"/>
+      <c r="BE11" s="31"/>
       <c r="BF11" s="35"/>
-    </row>
-    <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG11" s="35"/>
+    </row>
+    <row r="12" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
@@ -3924,8 +3954,9 @@
       <c r="BD12" s="33"/>
       <c r="BE12" s="33"/>
       <c r="BF12" s="33"/>
-    </row>
-    <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG12" s="33"/>
+    </row>
+    <row r="13" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="34"/>
       <c r="C13" s="31"/>
@@ -3982,10 +4013,11 @@
       <c r="BB13" s="31"/>
       <c r="BC13" s="31"/>
       <c r="BD13" s="31"/>
-      <c r="BE13" s="35"/>
+      <c r="BE13" s="31"/>
       <c r="BF13" s="35"/>
-    </row>
-    <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG13" s="35"/>
+    </row>
+    <row r="14" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -4044,8 +4076,9 @@
       <c r="BD14" s="33"/>
       <c r="BE14" s="33"/>
       <c r="BF14" s="33"/>
-    </row>
-    <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG14" s="33"/>
+    </row>
+    <row r="15" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="34"/>
       <c r="C15" s="31"/>
@@ -4102,10 +4135,11 @@
       <c r="BB15" s="31"/>
       <c r="BC15" s="31"/>
       <c r="BD15" s="31"/>
-      <c r="BE15" s="35"/>
+      <c r="BE15" s="31"/>
       <c r="BF15" s="35"/>
-    </row>
-    <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG15" s="35"/>
+    </row>
+    <row r="16" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
@@ -4164,8 +4198,9 @@
       <c r="BD16" s="33"/>
       <c r="BE16" s="33"/>
       <c r="BF16" s="33"/>
-    </row>
-    <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG16" s="33"/>
+    </row>
+    <row r="17" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="34"/>
       <c r="C17" s="31"/>
@@ -4222,10 +4257,11 @@
       <c r="BB17" s="31"/>
       <c r="BC17" s="31"/>
       <c r="BD17" s="31"/>
-      <c r="BE17" s="35"/>
+      <c r="BE17" s="31"/>
       <c r="BF17" s="35"/>
-    </row>
-    <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG17" s="35"/>
+    </row>
+    <row r="18" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
@@ -4284,8 +4320,9 @@
       <c r="BD18" s="33"/>
       <c r="BE18" s="33"/>
       <c r="BF18" s="33"/>
-    </row>
-    <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG18" s="33"/>
+    </row>
+    <row r="19" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="34"/>
       <c r="C19" s="31"/>
@@ -4342,10 +4379,11 @@
       <c r="BB19" s="31"/>
       <c r="BC19" s="31"/>
       <c r="BD19" s="31"/>
-      <c r="BE19" s="35"/>
+      <c r="BE19" s="31"/>
       <c r="BF19" s="35"/>
-    </row>
-    <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG19" s="35"/>
+    </row>
+    <row r="20" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -4404,8 +4442,9 @@
       <c r="BD20" s="33"/>
       <c r="BE20" s="33"/>
       <c r="BF20" s="33"/>
-    </row>
-    <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG20" s="33"/>
+    </row>
+    <row r="21" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="34"/>
       <c r="C21" s="31"/>
@@ -4462,10 +4501,11 @@
       <c r="BB21" s="31"/>
       <c r="BC21" s="31"/>
       <c r="BD21" s="31"/>
-      <c r="BE21" s="35"/>
+      <c r="BE21" s="31"/>
       <c r="BF21" s="35"/>
-    </row>
-    <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG21" s="35"/>
+    </row>
+    <row r="22" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -4524,8 +4564,9 @@
       <c r="BD22" s="33"/>
       <c r="BE22" s="33"/>
       <c r="BF22" s="33"/>
-    </row>
-    <row r="23" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG22" s="33"/>
+    </row>
+    <row r="23" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="34"/>
       <c r="C23" s="31"/>
@@ -4582,10 +4623,11 @@
       <c r="BB23" s="31"/>
       <c r="BC23" s="31"/>
       <c r="BD23" s="31"/>
-      <c r="BE23" s="35"/>
+      <c r="BE23" s="31"/>
       <c r="BF23" s="35"/>
-    </row>
-    <row r="24" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG23" s="35"/>
+    </row>
+    <row r="24" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
@@ -4644,8 +4686,9 @@
       <c r="BD24" s="33"/>
       <c r="BE24" s="33"/>
       <c r="BF24" s="33"/>
-    </row>
-    <row r="25" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG24" s="33"/>
+    </row>
+    <row r="25" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="34"/>
       <c r="C25" s="31"/>
@@ -4702,10 +4745,11 @@
       <c r="BB25" s="31"/>
       <c r="BC25" s="31"/>
       <c r="BD25" s="31"/>
-      <c r="BE25" s="35"/>
+      <c r="BE25" s="31"/>
       <c r="BF25" s="35"/>
-    </row>
-    <row r="26" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG25" s="35"/>
+    </row>
+    <row r="26" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
@@ -4764,8 +4808,9 @@
       <c r="BD26" s="33"/>
       <c r="BE26" s="33"/>
       <c r="BF26" s="33"/>
-    </row>
-    <row r="27" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG26" s="33"/>
+    </row>
+    <row r="27" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="34"/>
       <c r="C27" s="31"/>
@@ -4822,10 +4867,11 @@
       <c r="BB27" s="31"/>
       <c r="BC27" s="31"/>
       <c r="BD27" s="31"/>
-      <c r="BE27" s="35"/>
+      <c r="BE27" s="31"/>
       <c r="BF27" s="35"/>
-    </row>
-    <row r="28" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG27" s="35"/>
+    </row>
+    <row r="28" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
@@ -4884,8 +4930,9 @@
       <c r="BD28" s="33"/>
       <c r="BE28" s="33"/>
       <c r="BF28" s="33"/>
-    </row>
-    <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG28" s="33"/>
+    </row>
+    <row r="29" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="34"/>
       <c r="C29" s="31"/>
@@ -4942,10 +4989,11 @@
       <c r="BB29" s="31"/>
       <c r="BC29" s="31"/>
       <c r="BD29" s="31"/>
-      <c r="BE29" s="35"/>
+      <c r="BE29" s="31"/>
       <c r="BF29" s="35"/>
-    </row>
-    <row r="30" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG29" s="35"/>
+    </row>
+    <row r="30" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -5004,8 +5052,9 @@
       <c r="BD30" s="33"/>
       <c r="BE30" s="33"/>
       <c r="BF30" s="33"/>
-    </row>
-    <row r="31" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG30" s="33"/>
+    </row>
+    <row r="31" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="34"/>
       <c r="C31" s="31"/>
@@ -5062,10 +5111,11 @@
       <c r="BB31" s="31"/>
       <c r="BC31" s="31"/>
       <c r="BD31" s="31"/>
-      <c r="BE31" s="35"/>
+      <c r="BE31" s="31"/>
       <c r="BF31" s="35"/>
-    </row>
-    <row r="32" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG31" s="35"/>
+    </row>
+    <row r="32" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
@@ -5124,8 +5174,9 @@
       <c r="BD32" s="33"/>
       <c r="BE32" s="33"/>
       <c r="BF32" s="33"/>
-    </row>
-    <row r="33" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG32" s="33"/>
+    </row>
+    <row r="33" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="34"/>
       <c r="C33" s="31"/>
@@ -5182,10 +5233,11 @@
       <c r="BB33" s="31"/>
       <c r="BC33" s="31"/>
       <c r="BD33" s="31"/>
-      <c r="BE33" s="35"/>
+      <c r="BE33" s="31"/>
       <c r="BF33" s="35"/>
-    </row>
-    <row r="34" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG33" s="35"/>
+    </row>
+    <row r="34" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
@@ -5244,8 +5296,9 @@
       <c r="BD34" s="33"/>
       <c r="BE34" s="33"/>
       <c r="BF34" s="33"/>
-    </row>
-    <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG34" s="33"/>
+    </row>
+    <row r="35" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="34"/>
       <c r="C35" s="31"/>
@@ -5302,10 +5355,11 @@
       <c r="BB35" s="31"/>
       <c r="BC35" s="31"/>
       <c r="BD35" s="31"/>
-      <c r="BE35" s="35"/>
+      <c r="BE35" s="31"/>
       <c r="BF35" s="35"/>
-    </row>
-    <row r="36" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG35" s="35"/>
+    </row>
+    <row r="36" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
@@ -5364,8 +5418,9 @@
       <c r="BD36" s="33"/>
       <c r="BE36" s="33"/>
       <c r="BF36" s="33"/>
-    </row>
-    <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG36" s="33"/>
+    </row>
+    <row r="37" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="34"/>
       <c r="C37" s="31"/>
@@ -5422,10 +5477,11 @@
       <c r="BB37" s="31"/>
       <c r="BC37" s="31"/>
       <c r="BD37" s="31"/>
-      <c r="BE37" s="35"/>
+      <c r="BE37" s="31"/>
       <c r="BF37" s="35"/>
-    </row>
-    <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG37" s="35"/>
+    </row>
+    <row r="38" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
@@ -5484,8 +5540,9 @@
       <c r="BD38" s="33"/>
       <c r="BE38" s="33"/>
       <c r="BF38" s="33"/>
-    </row>
-    <row r="39" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG38" s="33"/>
+    </row>
+    <row r="39" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="34"/>
       <c r="C39" s="31"/>
@@ -5542,10 +5599,11 @@
       <c r="BB39" s="31"/>
       <c r="BC39" s="31"/>
       <c r="BD39" s="31"/>
-      <c r="BE39" s="35"/>
+      <c r="BE39" s="31"/>
       <c r="BF39" s="35"/>
-    </row>
-    <row r="40" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG39" s="35"/>
+    </row>
+    <row r="40" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="32"/>
       <c r="C40" s="33"/>
@@ -5604,8 +5662,9 @@
       <c r="BD40" s="33"/>
       <c r="BE40" s="33"/>
       <c r="BF40" s="33"/>
-    </row>
-    <row r="41" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG40" s="33"/>
+    </row>
+    <row r="41" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="34"/>
       <c r="C41" s="31"/>
@@ -5662,10 +5721,11 @@
       <c r="BB41" s="31"/>
       <c r="BC41" s="31"/>
       <c r="BD41" s="31"/>
-      <c r="BE41" s="35"/>
+      <c r="BE41" s="31"/>
       <c r="BF41" s="35"/>
-    </row>
-    <row r="42" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG41" s="35"/>
+    </row>
+    <row r="42" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="32"/>
       <c r="C42" s="33"/>
@@ -5724,8 +5784,9 @@
       <c r="BD42" s="33"/>
       <c r="BE42" s="33"/>
       <c r="BF42" s="33"/>
-    </row>
-    <row r="43" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG42" s="33"/>
+    </row>
+    <row r="43" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="34"/>
       <c r="C43" s="31"/>
@@ -5782,10 +5843,11 @@
       <c r="BB43" s="31"/>
       <c r="BC43" s="31"/>
       <c r="BD43" s="31"/>
-      <c r="BE43" s="35"/>
+      <c r="BE43" s="31"/>
       <c r="BF43" s="35"/>
-    </row>
-    <row r="44" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG43" s="35"/>
+    </row>
+    <row r="44" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="32"/>
       <c r="C44" s="33"/>
@@ -5844,8 +5906,9 @@
       <c r="BD44" s="33"/>
       <c r="BE44" s="33"/>
       <c r="BF44" s="33"/>
-    </row>
-    <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG44" s="33"/>
+    </row>
+    <row r="45" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="34"/>
       <c r="C45" s="31"/>
@@ -5902,10 +5965,11 @@
       <c r="BB45" s="31"/>
       <c r="BC45" s="31"/>
       <c r="BD45" s="31"/>
-      <c r="BE45" s="35"/>
+      <c r="BE45" s="31"/>
       <c r="BF45" s="35"/>
-    </row>
-    <row r="46" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG45" s="35"/>
+    </row>
+    <row r="46" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
@@ -5964,8 +6028,9 @@
       <c r="BD46" s="33"/>
       <c r="BE46" s="33"/>
       <c r="BF46" s="33"/>
-    </row>
-    <row r="47" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG46" s="33"/>
+    </row>
+    <row r="47" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="34"/>
       <c r="C47" s="31"/>
@@ -6022,10 +6087,11 @@
       <c r="BB47" s="31"/>
       <c r="BC47" s="31"/>
       <c r="BD47" s="31"/>
-      <c r="BE47" s="35"/>
+      <c r="BE47" s="31"/>
       <c r="BF47" s="35"/>
-    </row>
-    <row r="48" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG47" s="35"/>
+    </row>
+    <row r="48" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
@@ -6084,8 +6150,9 @@
       <c r="BD48" s="33"/>
       <c r="BE48" s="33"/>
       <c r="BF48" s="33"/>
-    </row>
-    <row r="49" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG48" s="33"/>
+    </row>
+    <row r="49" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="34"/>
       <c r="C49" s="31"/>
@@ -6142,10 +6209,11 @@
       <c r="BB49" s="31"/>
       <c r="BC49" s="31"/>
       <c r="BD49" s="31"/>
-      <c r="BE49" s="35"/>
+      <c r="BE49" s="31"/>
       <c r="BF49" s="35"/>
-    </row>
-    <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG49" s="35"/>
+    </row>
+    <row r="50" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
@@ -6204,10 +6272,11 @@
       <c r="BD50" s="38"/>
       <c r="BE50" s="38"/>
       <c r="BF50" s="38"/>
+      <c r="BG50" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C1:N1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6234,10 +6303,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="40"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -6335,10 +6404,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV98"/>
+  <dimension ref="A1:IV99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6349,21 +6418,21 @@
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
     <col min="5" max="5" width="23" style="57" customWidth="1"/>
     <col min="6" max="7" width="11" style="46" customWidth="1"/>
-    <col min="8" max="8" width="11" style="85" customWidth="1"/>
+    <col min="8" max="8" width="11" style="75" customWidth="1"/>
     <col min="9" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="47"/>
@@ -6372,16 +6441,16 @@
       <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -6390,26 +6459,26 @@
       <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="67" t="s">
         <v>127</v>
       </c>
       <c r="I3" s="29"/>
@@ -6420,28 +6489,28 @@
       <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="72">
         <v>10</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="73">
         <v>50</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="73">
         <v>8</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="73">
         <v>60</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="74" t="s">
         <v>128</v>
       </c>
       <c r="I4" s="29"/>
@@ -6471,7 +6540,7 @@
       <c r="G5" s="29">
         <v>30</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I5" s="29"/>
@@ -6501,7 +6570,7 @@
       <c r="G6" s="29">
         <v>30</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I6" s="29"/>
@@ -6531,7 +6600,7 @@
       <c r="G7" s="29">
         <v>30</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I7" s="29"/>
@@ -6544,10 +6613,10 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54"/>
       <c r="B8" s="49" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="D8" s="51">
         <v>4</v>
@@ -6561,7 +6630,7 @@
       <c r="G8" s="29">
         <v>30</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I8" s="29"/>
@@ -6574,16 +6643,16 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="B9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="51">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F9" s="29">
         <v>5</v>
@@ -6591,7 +6660,7 @@
       <c r="G9" s="29">
         <v>30</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I9" s="29"/>
@@ -6604,16 +6673,16 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54"/>
       <c r="B10" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="51">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F10" s="29">
         <v>5</v>
@@ -6621,7 +6690,7 @@
       <c r="G10" s="29">
         <v>30</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I10" s="29"/>
@@ -6634,16 +6703,16 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54"/>
       <c r="B11" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="29">
         <v>5</v>
@@ -6651,7 +6720,7 @@
       <c r="G11" s="29">
         <v>30</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I11" s="29"/>
@@ -6664,16 +6733,16 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54"/>
       <c r="B12" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" s="51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12" s="29">
         <v>5</v>
@@ -6681,7 +6750,7 @@
       <c r="G12" s="29">
         <v>30</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I12" s="29"/>
@@ -6694,16 +6763,16 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
       <c r="B13" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="29">
         <v>5</v>
@@ -6711,7 +6780,7 @@
       <c r="G13" s="29">
         <v>30</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I13" s="29"/>
@@ -6724,16 +6793,16 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="51">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F14" s="29">
         <v>5</v>
@@ -6741,7 +6810,7 @@
       <c r="G14" s="29">
         <v>30</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I14" s="29"/>
@@ -6754,16 +6823,16 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15" s="51">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F15" s="29">
         <v>5</v>
@@ -6771,7 +6840,7 @@
       <c r="G15" s="29">
         <v>30</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I15" s="29"/>
@@ -6784,16 +6853,16 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="29">
         <v>5</v>
@@ -6801,7 +6870,7 @@
       <c r="G16" s="29">
         <v>30</v>
       </c>
-      <c r="H16" s="86" t="s">
+      <c r="H16" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I16" s="29"/>
@@ -6814,16 +6883,16 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="29">
         <v>5</v>
@@ -6831,7 +6900,7 @@
       <c r="G17" s="29">
         <v>30</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I17" s="29"/>
@@ -6844,16 +6913,16 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
       <c r="B18" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="29">
         <v>5</v>
@@ -6861,7 +6930,7 @@
       <c r="G18" s="29">
         <v>30</v>
       </c>
-      <c r="H18" s="86" t="s">
+      <c r="H18" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I18" s="29"/>
@@ -6874,16 +6943,16 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
       <c r="B19" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" s="51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19" s="29">
         <v>5</v>
@@ -6891,7 +6960,7 @@
       <c r="G19" s="29">
         <v>30</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I19" s="29"/>
@@ -6904,16 +6973,16 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="51">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E20" s="51">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="F20" s="29">
         <v>5</v>
@@ -6921,7 +6990,7 @@
       <c r="G20" s="29">
         <v>30</v>
       </c>
-      <c r="H20" s="86" t="s">
+      <c r="H20" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I20" s="29"/>
@@ -6934,16 +7003,16 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="51">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E21" s="51">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="F21" s="29">
         <v>5</v>
@@ -6951,7 +7020,7 @@
       <c r="G21" s="29">
         <v>30</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I21" s="29"/>
@@ -6964,16 +7033,16 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E22" s="51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F22" s="29">
         <v>5</v>
@@ -6981,7 +7050,7 @@
       <c r="G22" s="29">
         <v>30</v>
       </c>
-      <c r="H22" s="86" t="s">
+      <c r="H22" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I22" s="29"/>
@@ -6994,16 +7063,16 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23" s="51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23" s="29">
         <v>5</v>
@@ -7011,7 +7080,7 @@
       <c r="G23" s="29">
         <v>30</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I23" s="29"/>
@@ -7024,16 +7093,16 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="51">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F24" s="29">
         <v>5</v>
@@ -7041,7 +7110,7 @@
       <c r="G24" s="29">
         <v>30</v>
       </c>
-      <c r="H24" s="86" t="s">
+      <c r="H24" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I24" s="29"/>
@@ -7054,16 +7123,16 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25" s="51">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F25" s="29">
         <v>5</v>
@@ -7071,7 +7140,7 @@
       <c r="G25" s="29">
         <v>30</v>
       </c>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I25" s="29"/>
@@ -7084,16 +7153,16 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E26" s="51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F26" s="29">
         <v>5</v>
@@ -7101,7 +7170,7 @@
       <c r="G26" s="29">
         <v>30</v>
       </c>
-      <c r="H26" s="86" t="s">
+      <c r="H26" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I26" s="29"/>
@@ -7114,16 +7183,16 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="29">
         <v>5</v>
@@ -7131,7 +7200,7 @@
       <c r="G27" s="29">
         <v>30</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I27" s="29"/>
@@ -7144,16 +7213,16 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
       <c r="B28" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" s="29">
         <v>5</v>
@@ -7161,7 +7230,7 @@
       <c r="G28" s="29">
         <v>30</v>
       </c>
-      <c r="H28" s="86" t="s">
+      <c r="H28" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I28" s="29"/>
@@ -7174,16 +7243,16 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
       <c r="B29" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" s="51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" s="29">
         <v>5</v>
@@ -7191,7 +7260,7 @@
       <c r="G29" s="29">
         <v>30</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I29" s="29"/>
@@ -7204,16 +7273,16 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
       <c r="B30" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E30" s="51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F30" s="29">
         <v>5</v>
@@ -7221,7 +7290,7 @@
       <c r="G30" s="29">
         <v>30</v>
       </c>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I30" s="29"/>
@@ -7234,10 +7303,10 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="51">
         <v>4</v>
@@ -7251,7 +7320,7 @@
       <c r="G31" s="29">
         <v>30</v>
       </c>
-      <c r="H31" s="86" t="s">
+      <c r="H31" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I31" s="29"/>
@@ -7264,16 +7333,16 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54"/>
       <c r="B32" s="49" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="29">
         <v>5</v>
@@ -7281,7 +7350,7 @@
       <c r="G32" s="29">
         <v>30</v>
       </c>
-      <c r="H32" s="86" t="s">
+      <c r="H32" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I32" s="29"/>
@@ -7294,16 +7363,16 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54"/>
       <c r="B33" s="49" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="29">
         <v>5</v>
@@ -7311,7 +7380,7 @@
       <c r="G33" s="29">
         <v>30</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I33" s="29"/>
@@ -7324,16 +7393,16 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
       <c r="B34" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34" s="51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" s="29">
         <v>5</v>
@@ -7341,7 +7410,7 @@
       <c r="G34" s="29">
         <v>30</v>
       </c>
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I34" s="29"/>
@@ -7354,16 +7423,16 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
       <c r="B35" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" s="29">
         <v>5</v>
@@ -7371,7 +7440,7 @@
       <c r="G35" s="29">
         <v>30</v>
       </c>
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I35" s="29"/>
@@ -7384,16 +7453,16 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
       <c r="B36" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E36" s="51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F36" s="29">
         <v>5</v>
@@ -7401,7 +7470,7 @@
       <c r="G36" s="29">
         <v>30</v>
       </c>
-      <c r="H36" s="86" t="s">
+      <c r="H36" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I36" s="29"/>
@@ -7414,16 +7483,16 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
       <c r="B37" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" s="29">
         <v>5</v>
@@ -7431,7 +7500,7 @@
       <c r="G37" s="29">
         <v>30</v>
       </c>
-      <c r="H37" s="86" t="s">
+      <c r="H37" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I37" s="29"/>
@@ -7444,16 +7513,16 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54"/>
       <c r="B38" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E38" s="51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F38" s="29">
         <v>5</v>
@@ -7461,7 +7530,7 @@
       <c r="G38" s="29">
         <v>30</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I38" s="29"/>
@@ -7474,16 +7543,16 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
       <c r="B39" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E39" s="51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="29">
         <v>5</v>
@@ -7491,7 +7560,7 @@
       <c r="G39" s="29">
         <v>30</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I39" s="29"/>
@@ -7504,16 +7573,16 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54"/>
       <c r="B40" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="29">
         <v>5</v>
@@ -7521,7 +7590,7 @@
       <c r="G40" s="29">
         <v>30</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I40" s="29"/>
@@ -7534,16 +7603,16 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54"/>
       <c r="B41" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E41" s="51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F41" s="29">
         <v>5</v>
@@ -7551,7 +7620,7 @@
       <c r="G41" s="29">
         <v>30</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I41" s="29"/>
@@ -7564,16 +7633,16 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54"/>
       <c r="B42" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="29">
         <v>5</v>
@@ -7581,7 +7650,7 @@
       <c r="G42" s="29">
         <v>30</v>
       </c>
-      <c r="H42" s="86" t="s">
+      <c r="H42" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I42" s="29"/>
@@ -7594,16 +7663,16 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54"/>
       <c r="B43" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F43" s="29">
         <v>5</v>
@@ -7611,7 +7680,7 @@
       <c r="G43" s="29">
         <v>30</v>
       </c>
-      <c r="H43" s="86" t="s">
+      <c r="H43" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I43" s="29"/>
@@ -7624,16 +7693,16 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
       <c r="B44" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F44" s="29">
         <v>5</v>
@@ -7641,7 +7710,7 @@
       <c r="G44" s="29">
         <v>30</v>
       </c>
-      <c r="H44" s="86" t="s">
+      <c r="H44" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I44" s="29"/>
@@ -7654,16 +7723,16 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54"/>
       <c r="B45" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="51">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E45" s="51">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F45" s="29">
         <v>5</v>
@@ -7671,7 +7740,7 @@
       <c r="G45" s="29">
         <v>30</v>
       </c>
-      <c r="H45" s="86" t="s">
+      <c r="H45" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I45" s="29"/>
@@ -7684,16 +7753,16 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54"/>
       <c r="B46" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="51">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E46" s="51">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F46" s="29">
         <v>5</v>
@@ -7701,7 +7770,7 @@
       <c r="G46" s="29">
         <v>30</v>
       </c>
-      <c r="H46" s="86" t="s">
+      <c r="H46" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I46" s="29"/>
@@ -7714,16 +7783,16 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54"/>
       <c r="B47" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E47" s="51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F47" s="29">
         <v>5</v>
@@ -7731,7 +7800,7 @@
       <c r="G47" s="29">
         <v>30</v>
       </c>
-      <c r="H47" s="86" t="s">
+      <c r="H47" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I47" s="29"/>
@@ -7744,16 +7813,16 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54"/>
       <c r="B48" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48" s="29">
         <v>5</v>
@@ -7761,7 +7830,7 @@
       <c r="G48" s="29">
         <v>30</v>
       </c>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I48" s="29"/>
@@ -7774,16 +7843,16 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54"/>
       <c r="B49" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="51">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E49" s="51">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F49" s="29">
         <v>5</v>
@@ -7791,7 +7860,7 @@
       <c r="G49" s="29">
         <v>30</v>
       </c>
-      <c r="H49" s="86" t="s">
+      <c r="H49" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I49" s="29"/>
@@ -7804,16 +7873,16 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54"/>
       <c r="B50" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="51">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E50" s="51">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F50" s="29">
         <v>5</v>
@@ -7821,7 +7890,7 @@
       <c r="G50" s="29">
         <v>30</v>
       </c>
-      <c r="H50" s="86" t="s">
+      <c r="H50" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I50" s="29"/>
@@ -7834,16 +7903,16 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54"/>
       <c r="B51" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" s="51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="29">
         <v>5</v>
@@ -7851,7 +7920,7 @@
       <c r="G51" s="29">
         <v>30</v>
       </c>
-      <c r="H51" s="86" t="s">
+      <c r="H51" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I51" s="29"/>
@@ -7864,16 +7933,16 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54"/>
       <c r="B52" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E52" s="51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F52" s="29">
         <v>5</v>
@@ -7881,7 +7950,7 @@
       <c r="G52" s="29">
         <v>30</v>
       </c>
-      <c r="H52" s="86" t="s">
+      <c r="H52" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I52" s="29"/>
@@ -7894,16 +7963,16 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54"/>
       <c r="B53" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E53" s="51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F53" s="29">
         <v>5</v>
@@ -7911,7 +7980,7 @@
       <c r="G53" s="29">
         <v>30</v>
       </c>
-      <c r="H53" s="86" t="s">
+      <c r="H53" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I53" s="29"/>
@@ -7924,16 +7993,16 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54"/>
       <c r="B54" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="29">
         <v>5</v>
@@ -7941,7 +8010,7 @@
       <c r="G54" s="29">
         <v>30</v>
       </c>
-      <c r="H54" s="86" t="s">
+      <c r="H54" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I54" s="29"/>
@@ -7954,16 +8023,16 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54"/>
       <c r="B55" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E55" s="51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F55" s="29">
         <v>5</v>
@@ -7971,7 +8040,7 @@
       <c r="G55" s="29">
         <v>30</v>
       </c>
-      <c r="H55" s="86" t="s">
+      <c r="H55" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I55" s="29"/>
@@ -7984,16 +8053,16 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54"/>
       <c r="B56" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E56" s="51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F56" s="29">
         <v>5</v>
@@ -8001,7 +8070,7 @@
       <c r="G56" s="29">
         <v>30</v>
       </c>
-      <c r="H56" s="86" t="s">
+      <c r="H56" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I56" s="29"/>
@@ -8014,10 +8083,10 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54"/>
       <c r="B57" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="51">
         <v>2</v>
@@ -8031,7 +8100,7 @@
       <c r="G57" s="29">
         <v>30</v>
       </c>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I57" s="29"/>
@@ -8044,16 +8113,16 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54"/>
       <c r="B58" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E58" s="51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58" s="29">
         <v>5</v>
@@ -8061,7 +8130,7 @@
       <c r="G58" s="29">
         <v>30</v>
       </c>
-      <c r="H58" s="86" t="s">
+      <c r="H58" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I58" s="29"/>
@@ -8074,16 +8143,16 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54"/>
       <c r="B59" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E59" s="51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F59" s="29">
         <v>5</v>
@@ -8091,7 +8160,7 @@
       <c r="G59" s="29">
         <v>30</v>
       </c>
-      <c r="H59" s="86" t="s">
+      <c r="H59" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I59" s="29"/>
@@ -8103,17 +8172,17 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54"/>
-      <c r="B60" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="60">
-        <v>0</v>
-      </c>
-      <c r="E60" s="60">
-        <v>25</v>
+      <c r="B60" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="51">
+        <v>1</v>
+      </c>
+      <c r="E60" s="51">
+        <v>1</v>
       </c>
       <c r="F60" s="29">
         <v>5</v>
@@ -8121,7 +8190,7 @@
       <c r="G60" s="29">
         <v>30</v>
       </c>
-      <c r="H60" s="86" t="s">
+      <c r="H60" s="76" t="s">
         <v>128</v>
       </c>
       <c r="I60" s="29"/>
@@ -8133,13 +8202,27 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="25"/>
+      <c r="B61" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="60">
+        <v>0</v>
+      </c>
+      <c r="E61" s="60">
+        <v>25</v>
+      </c>
+      <c r="F61" s="29">
+        <v>5</v>
+      </c>
+      <c r="G61" s="29">
+        <v>30</v>
+      </c>
+      <c r="H61" s="76" t="s">
+        <v>128</v>
+      </c>
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -8724,7 +8807,7 @@
       <c r="N97" s="29"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="55"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="40"/>
       <c r="C98" s="29"/>
       <c r="D98" s="51"/>
@@ -8739,6 +8822,22 @@
       <c r="M98" s="29"/>
       <c r="N98" s="29"/>
     </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="55"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
